--- a/public/templates/credit_requests.xlsx
+++ b/public/templates/credit_requests.xlsx
@@ -1,80 +1,437 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c.ch/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F5E9B39-BA4A-3D44-B205-11C7703048D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>client_type</t>
-  </si>
-  <si>
-    <t>pagaduria_id</t>
-  </si>
-  <si>
-    <t>tipo_credito</t>
-  </si>
-  <si>
-    <t>cuota</t>
-  </si>
-  <si>
-    <t>monto</t>
-  </si>
-  <si>
-    <t>tasa</t>
-  </si>
-  <si>
-    <t>plazo</t>
-  </si>
-  <si>
-    <t>tipo_pension</t>
-  </si>
-  <si>
-    <t>resolucion</t>
-  </si>
-  <si>
-    <t>tipo_cartera</t>
-  </si>
-  <si>
-    <t>nombre_entidad</t>
-  </si>
-  <si>
-    <t>valor_cuota</t>
-  </si>
-  <si>
-    <t>saldo</t>
-  </si>
-  <si>
-    <t>opera_x_desprendible</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
+  <si>
+    <t>Nombre completo</t>
+  </si>
+  <si>
+    <t>Tipo de cliente</t>
+  </si>
+  <si>
+    <t>Tasa mensual (%)</t>
+  </si>
+  <si>
+    <t>Plazo (meses)</t>
+  </si>
+  <si>
+    <t>Pagaduria</t>
+  </si>
+  <si>
+    <t>Tipo de Cliente</t>
+  </si>
+  <si>
+    <t>Docente</t>
+  </si>
+  <si>
+    <t>Pensionado</t>
+  </si>
+  <si>
+    <t>Tipo de credito</t>
+  </si>
+  <si>
+    <t>Libre Inversion</t>
+  </si>
+  <si>
+    <t>Compra de Cartera</t>
+  </si>
+  <si>
+    <t>Refinanciación</t>
+  </si>
+  <si>
+    <t>Refinanciación + Libre Inversión</t>
+  </si>
+  <si>
+    <t>Refinanciación + Compra de Cartera</t>
+  </si>
+  <si>
+    <t>Valor cuota mensual ($)</t>
+  </si>
+  <si>
+    <t>Monto solicitado ($)</t>
+  </si>
+  <si>
+    <t>SED AMAZONAS</t>
+  </si>
+  <si>
+    <t>SED CESAR</t>
+  </si>
+  <si>
+    <t>SED SANTANDER</t>
+  </si>
+  <si>
+    <t>SEM SINCELEJO</t>
+  </si>
+  <si>
+    <t>SED VICHADA</t>
+  </si>
+  <si>
+    <t>SEM ARMENIA</t>
+  </si>
+  <si>
+    <t>SEM BUCARAMANGA</t>
+  </si>
+  <si>
+    <t>SEM BUENAVENTURA</t>
+  </si>
+  <si>
+    <t>SEM DUITAMA</t>
+  </si>
+  <si>
+    <t>SEM FLORENCIA</t>
+  </si>
+  <si>
+    <t>SEM LORICA</t>
+  </si>
+  <si>
+    <t>SEM MAICAO</t>
+  </si>
+  <si>
+    <t>SEM PEREIRA</t>
+  </si>
+  <si>
+    <t>SEM TUMACO</t>
+  </si>
+  <si>
+    <t>SEM CIENAGA</t>
+  </si>
+  <si>
+    <t>SED CASANARE</t>
+  </si>
+  <si>
+    <t>SEM NEIVA</t>
+  </si>
+  <si>
+    <t>SEM BARRANQUILLA</t>
+  </si>
+  <si>
+    <t>SEM SABANETA</t>
+  </si>
+  <si>
+    <t>SED ARAUCA</t>
+  </si>
+  <si>
+    <t>SED BOYACA</t>
+  </si>
+  <si>
+    <t>SEM BELLO</t>
+  </si>
+  <si>
+    <t>SEM DOSQUEBRADAS</t>
+  </si>
+  <si>
+    <t>SED META</t>
+  </si>
+  <si>
+    <t>SED RISARALDA</t>
+  </si>
+  <si>
+    <t>SEM ENVIGADO</t>
+  </si>
+  <si>
+    <t>SEM GUAINIA</t>
+  </si>
+  <si>
+    <t>SEM FUNZA</t>
+  </si>
+  <si>
+    <t>SEM SOACHA</t>
+  </si>
+  <si>
+    <t>SEM TULUA</t>
+  </si>
+  <si>
+    <t>SED ATLANTICO</t>
+  </si>
+  <si>
+    <t>SED TOLIMA</t>
+  </si>
+  <si>
+    <t>SEM SOLEDAD</t>
+  </si>
+  <si>
+    <t>SEM VILLAVICENCIO</t>
+  </si>
+  <si>
+    <t>SEM PASTO</t>
+  </si>
+  <si>
+    <t>SEM SANTA MARTA</t>
+  </si>
+  <si>
+    <t>SEM RIONEGRO</t>
+  </si>
+  <si>
+    <t>SED ANTIOQUIA</t>
+  </si>
+  <si>
+    <t>SED VAUPES</t>
+  </si>
+  <si>
+    <t>SEM MAGANGUE</t>
+  </si>
+  <si>
+    <t>SEM IPIALES</t>
+  </si>
+  <si>
+    <t>SEM ITAGUI</t>
+  </si>
+  <si>
+    <t>SEM CARTAGO</t>
+  </si>
+  <si>
+    <t>SEM TURBO</t>
+  </si>
+  <si>
+    <t>SEM PITALITO</t>
+  </si>
+  <si>
+    <t>SED CALDAS</t>
+  </si>
+  <si>
+    <t>SED CAQUETA</t>
+  </si>
+  <si>
+    <t>SEM TUNJA</t>
+  </si>
+  <si>
+    <t>SEM SAHAGUN</t>
+  </si>
+  <si>
+    <t>SED NARINO</t>
+  </si>
+  <si>
+    <t>SEM URIBIA</t>
+  </si>
+  <si>
+    <t>SED MAGDALENA</t>
+  </si>
+  <si>
+    <t>SEM JAMUNDI</t>
+  </si>
+  <si>
+    <t>SEM IBAGUE</t>
+  </si>
+  <si>
+    <t>SEM APARTADO</t>
+  </si>
+  <si>
+    <t>SEM RIOHACHA</t>
+  </si>
+  <si>
+    <t>SEM FUSAGAZUGA</t>
+  </si>
+  <si>
+    <t>SEM PALMIRA</t>
+  </si>
+  <si>
+    <t>SEM MOSQUERA</t>
+  </si>
+  <si>
+    <t>SED NORTE DE SANTANDER</t>
+  </si>
+  <si>
+    <t>SEM ZIPAQUIRA</t>
+  </si>
+  <si>
+    <t>SEM BUGA</t>
+  </si>
+  <si>
+    <t>SEM SAN ANDRES</t>
+  </si>
+  <si>
+    <t>SEM POPAYAN</t>
+  </si>
+  <si>
+    <t>SEM BARRANCABERMEJA</t>
+  </si>
+  <si>
+    <t>SEM MALAMBO</t>
+  </si>
+  <si>
+    <t>SEM QUIBDO</t>
+  </si>
+  <si>
+    <t>SED CUNDINAMARCA</t>
+  </si>
+  <si>
+    <t>SEM FACATATIVA</t>
+  </si>
+  <si>
+    <t>SED VALLE</t>
+  </si>
+  <si>
+    <t>SED QUINDIO</t>
+  </si>
+  <si>
+    <t>SEM ESTRELLA</t>
+  </si>
+  <si>
+    <t>SEM YUMBO</t>
+  </si>
+  <si>
+    <t>SEM FLORIDABLANCA</t>
+  </si>
+  <si>
+    <t>SEM VALLEDUPAR</t>
+  </si>
+  <si>
+    <t>SEM SOGAMOSO</t>
+  </si>
+  <si>
+    <t>SED GUAVIARE</t>
+  </si>
+  <si>
+    <t>SEM MANIZALES</t>
+  </si>
+  <si>
+    <t>SED SUCRE</t>
+  </si>
+  <si>
+    <t>SEM MONTERIA</t>
+  </si>
+  <si>
+    <t>SED CAUCA</t>
+  </si>
+  <si>
+    <t>SED HUILA</t>
+  </si>
+  <si>
+    <t>SEM GIRARDOT</t>
+  </si>
+  <si>
+    <t>SEM MEDELLIN</t>
+  </si>
+  <si>
+    <t>SED CORDOBA</t>
+  </si>
+  <si>
+    <t>SED PUTUMAYO</t>
+  </si>
+  <si>
+    <t>SEM CARTAGENA</t>
+  </si>
+  <si>
+    <t>SEM CALI</t>
+  </si>
+  <si>
+    <t>SED GUAJIRA</t>
+  </si>
+  <si>
+    <t>SEM CHIA</t>
+  </si>
+  <si>
+    <t>SEM GIRON</t>
+  </si>
+  <si>
+    <t>SEM CUCUTA</t>
+  </si>
+  <si>
+    <t>SEM PIEDECUESTA</t>
+  </si>
+  <si>
+    <t>SEM YOPAL</t>
+  </si>
+  <si>
+    <t>FIDUPREVISORA</t>
+  </si>
+  <si>
+    <t>COLPENSIONES</t>
+  </si>
+  <si>
+    <t>FOPEP</t>
+  </si>
+  <si>
+    <t>CASUR</t>
+  </si>
+  <si>
+    <t>Cedula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -83,36 +440,152 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -302,70 +775,666 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{B5D84343-6E32-4843-9611-549DC79F195A}">
+      <formula1>0</formula1>
+      <formula2>100000000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{E5D6ED29-4310-E447-AF91-BCAF51F8F020}">
+      <formula1>0</formula1>
+      <formula2>100000000000000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{7327F3D3-F1FE-B843-A0E9-D09740314D1B}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{265DEC53-5F6F-0546-ACB3-EB7DCD9137E0}">
+      <formula1>1</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13F5C8B7-2335-5545-B589-42953C14FE95}">
+          <x14:formula1>
+            <xm:f>IF($C$2="Docente",Hoja1!$G$6:$G$99,Hoja1!$I$6:$I$9)</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35E44D94-7903-E34B-956D-F5CEE846DB42}">
+          <x14:formula1>
+            <xm:f>Hoja1!B$9:B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C11480BE-238A-C74A-A306-CA11001C03EA}">
+          <x14:formula1>
+            <xm:f>Hoja1!B$15:B$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F1049-8808-194E-AF30-38F2EA7BA4F1}">
+  <dimension ref="B5:I99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="G16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="B23" s="3"/>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G40" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G43" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G44" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G45" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G46" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G47" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G48" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G49" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G50" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G51" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G52" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G53" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G54" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G55" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G56" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G57" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G58" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G59" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G60" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G61" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G62" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G63" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G64" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G65" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G66" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G67" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G68" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G69" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G70" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G71" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G72" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G73" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G74" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G75" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G76" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G77" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G78" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G79" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G80" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G81" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G82" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G83" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G84" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G85" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G86" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G87" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G88" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G89" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G90" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G91" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G92" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G93" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G94" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G95" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G96" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G97" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G98" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G99" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>